--- a/exp4/Lab data.xlsx
+++ b/exp4/Lab data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12168\OneDrive\108 course\无线随意网络\ad-hoc\exp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4DA82427541F7ACA7EB80140CB070E6BE8DE12" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4AEEC26-C32B-4B9C-BDB7-44F2F9EE4D8C}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_AD4DA82427541F7ACA7EB80140CB070E6BE8DE12" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B10A33C-A194-48A8-BD31-2B9B0C063241}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,12 +91,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -112,6 +128,4240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Topology</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> 3*3</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>513294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>517601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>517596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>517466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87F1-4755-A080-A9F75CE0A7B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1743322128"/>
+        <c:axId val="1743450832"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lost Pckets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87F1-4755-A080-A9F75CE0A7B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1746907120"/>
+        <c:axId val="1743441264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1743322128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>CW</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743450832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1743450832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>  Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1743322128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1743441264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Lost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Packets</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746907120"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1746907120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1743441264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Topology</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> 4*4</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>353091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>454830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>517201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>517162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F0A-494E-9DF1-BE5195ED833B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1182866960"/>
+        <c:axId val="1856503648"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lost Pckets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F0A-494E-9DF1-BE5195ED833B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1878249920"/>
+        <c:axId val="1856522784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1182866960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>CW</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1856503648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1856503648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182866960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1856522784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Lost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Packets</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1878249920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1878249920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1856522784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Topology</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>*</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Throughput</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>368019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>496033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>496190</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD96-424F-AFB7-C371B0D97875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1834138160"/>
+        <c:axId val="1834351600"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lost Pckets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD96-424F-AFB7-C371B0D97875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1516780368"/>
+        <c:axId val="1508630544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1834138160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>CW</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834351600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1834351600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834138160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1508630544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Lost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Packets</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1516780368"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1516780368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1508630544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39184A7-1480-412F-A6A8-2D33A751AE37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E97E92-8950-44EE-BA4E-4DB17F5E6F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE507AB8-EA36-4D58-B15E-4C9D44F83DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,7 +4630,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -391,230 +4641,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>513294</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>517601</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>517596</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>517466</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>63</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>517534</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>291042</v>
-      </c>
-      <c r="C11">
-        <v>427</v>
+      <c r="B11" s="1">
+        <v>353091</v>
+      </c>
+      <c r="C11" s="1">
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>390126</v>
-      </c>
-      <c r="C12">
-        <v>240</v>
+      <c r="B12" s="1">
+        <v>454830</v>
+      </c>
+      <c r="C12" s="1">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>452766</v>
-      </c>
-      <c r="C13">
-        <v>122</v>
+      <c r="B13" s="1">
+        <v>517201</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>31</v>
       </c>
-      <c r="B14">
-        <v>452740</v>
-      </c>
-      <c r="C14">
-        <v>122</v>
+      <c r="B14" s="1">
+        <v>517162</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>63</v>
       </c>
-      <c r="B15">
-        <v>452675</v>
-      </c>
-      <c r="C15">
-        <v>122</v>
+      <c r="B15" s="1">
+        <v>517252</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>371759</v>
-      </c>
-      <c r="C19">
-        <v>411</v>
+      <c r="B19" s="1">
+        <v>368019</v>
+      </c>
+      <c r="C19" s="1">
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>7</v>
       </c>
-      <c r="B20">
-        <v>512415</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
+      <c r="B20" s="1">
+        <v>411897</v>
+      </c>
+      <c r="C20" s="1">
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B21">
-        <v>454298</v>
-      </c>
-      <c r="C21">
-        <v>178</v>
+      <c r="B21" s="1">
+        <v>496033</v>
+      </c>
+      <c r="C21" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>31</v>
       </c>
-      <c r="B22">
-        <v>517010</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="B22" s="1">
+        <v>496190</v>
+      </c>
+      <c r="C22" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>63</v>
       </c>
-      <c r="B23">
-        <v>475342</v>
-      </c>
-      <c r="C23">
-        <v>118</v>
+      <c r="B23" s="1">
+        <v>517155</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>